--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123030.6240873928</v>
+        <v>123030.6240873929</v>
       </c>
     </row>
     <row r="7">
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K26" t="n">
         <v>86.72591490550931</v>
@@ -9881,7 +9881,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N26" t="n">
         <v>42.33948647951536</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K27" t="n">
         <v>47.25897875440141</v>
@@ -10045,10 +10045,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O28" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P28" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K29" t="n">
         <v>86.72591490550931</v>
@@ -10118,7 +10118,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N29" t="n">
         <v>42.33948647951536</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
         <v>47.25897875440141</v>
@@ -10282,10 +10282,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O31" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P31" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S26" t="n">
         <v>185.1290231762283</v>
@@ -24622,7 +24622,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R28" t="n">
         <v>156.1475068297698</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S29" t="n">
         <v>185.1290231762283</v>
@@ -24859,7 +24859,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R31" t="n">
         <v>156.1475068297698</v>
@@ -26332,28 +26332,28 @@
         <v>76407.44210864043</v>
       </c>
       <c r="I2" t="n">
+        <v>76407.44210864045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>76407.44210864042</v>
+      </c>
+      <c r="K2" t="n">
         <v>76407.44210864043</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>76407.44210864045</v>
+      </c>
+      <c r="M2" t="n">
         <v>76407.44210864043</v>
       </c>
-      <c r="K2" t="n">
-        <v>76407.44210864045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>76407.44210864042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76407.44210864042</v>
-      </c>
       <c r="N2" t="n">
-        <v>76407.44210864042</v>
+        <v>76407.44210864043</v>
       </c>
       <c r="O2" t="n">
-        <v>76407.44210864045</v>
+        <v>76407.44210864043</v>
       </c>
       <c r="P2" t="n">
-        <v>76407.44210864045</v>
+        <v>76407.44210864043</v>
       </c>
     </row>
     <row r="3">
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9562.453333973703</v>
+        <v>-9562.453333973695</v>
       </c>
       <c r="C6" t="n">
-        <v>-9562.453333973703</v>
+        <v>-9562.453333973695</v>
       </c>
       <c r="D6" t="n">
-        <v>-9562.453333973703</v>
+        <v>-9562.453333973695</v>
       </c>
       <c r="E6" t="n">
         <v>-155076.0470005951</v>
@@ -26540,28 +26540,28 @@
         <v>54448.55713711373</v>
       </c>
       <c r="I6" t="n">
+        <v>54448.55713711375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>54448.55713711372</v>
+      </c>
+      <c r="K6" t="n">
         <v>54448.55713711373</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
+        <v>54448.55713711375</v>
+      </c>
+      <c r="M6" t="n">
         <v>54448.55713711373</v>
       </c>
-      <c r="K6" t="n">
-        <v>54448.55713711374</v>
-      </c>
-      <c r="L6" t="n">
-        <v>54448.55713711371</v>
-      </c>
-      <c r="M6" t="n">
-        <v>54448.55713711371</v>
-      </c>
       <c r="N6" t="n">
-        <v>54448.55713711371</v>
+        <v>54448.55713711373</v>
       </c>
       <c r="O6" t="n">
-        <v>54448.55713711374</v>
+        <v>54448.55713711373</v>
       </c>
       <c r="P6" t="n">
-        <v>54448.55713711374</v>
+        <v>54448.55713711373</v>
       </c>
     </row>
   </sheetData>
@@ -32944,7 +32944,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K26" t="n">
         <v>133.3639361394712</v>
@@ -32968,7 +32968,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S26" t="n">
         <v>23.89104641001701</v>
@@ -32977,7 +32977,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,7 +33017,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I27" t="n">
         <v>19.31369510624622</v>
@@ -33050,7 +33050,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T27" t="n">
         <v>2.261055516259907</v>
@@ -33102,7 +33102,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K28" t="n">
         <v>54.63898190775737</v>
@@ -33117,13 +33117,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P28" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R28" t="n">
         <v>21.14588454739968</v>
@@ -33181,7 +33181,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
         <v>133.3639361394712</v>
@@ -33205,7 +33205,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
         <v>23.89104641001701</v>
@@ -33214,7 +33214,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
         <v>19.31369510624622</v>
@@ -33287,7 +33287,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
         <v>2.261055516259907</v>
@@ -33339,7 +33339,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
         <v>54.63898190775737</v>
@@ -33354,13 +33354,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
         <v>21.14588454739968</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123030.6240873929</v>
+        <v>111432.1316913352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9572936.676005716</v>
+        <v>9865703.132607052</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22123460.63075672</v>
+        <v>22079133.17442485</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4079974.050209591</v>
+        <v>4079616.312177448</v>
       </c>
     </row>
     <row r="11">
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K11" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L11" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M11" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N11" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O11" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P11" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K12" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L12" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L13" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M13" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N13" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O13" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P13" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K14" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L14" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M14" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N14" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O14" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P14" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K15" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L15" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L16" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M16" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N16" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O16" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P16" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K17" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L17" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M17" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N17" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O17" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P17" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K18" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L18" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L19" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M19" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N19" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O19" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P19" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K20" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L20" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M20" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N20" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O20" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P20" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K21" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L21" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L22" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M22" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N22" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O22" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P22" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K23" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L23" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M23" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N23" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O23" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P23" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K24" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L24" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L25" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M25" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N25" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O25" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P25" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>92.06191329280011</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K26" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L26" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M26" t="n">
-        <v>46.25150133729363</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N26" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O26" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P26" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>73.83937108913167</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K27" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L27" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L28" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M28" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O28" t="n">
-        <v>71.98338581476828</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P28" t="n">
-        <v>80.84873837615825</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K29" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L29" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M29" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N29" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O29" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P29" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K30" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L30" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L31" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M31" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O31" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P31" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K32" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L32" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M32" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N32" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O32" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P32" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K33" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L33" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L34" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M34" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O34" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P34" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K35" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L35" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M35" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N35" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O35" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P35" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K36" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L36" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L37" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M37" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N37" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O37" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P37" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K38" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L38" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M38" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N38" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O38" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P38" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K39" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L39" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L40" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M40" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N40" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O40" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P40" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K41" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L41" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M41" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N41" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O41" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P41" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K42" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L42" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L43" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M43" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N43" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O43" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P43" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>92.06191329280013</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K44" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L44" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M44" t="n">
-        <v>46.25150133729366</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N44" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O44" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P44" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q44" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>73.83937108913169</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K45" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L45" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q45" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L46" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M46" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N46" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O46" t="n">
-        <v>71.9833858147683</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P46" t="n">
-        <v>80.84873837615827</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23218,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H11" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S11" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H12" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I12" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S12" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I13" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J13" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R13" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S13" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H14" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I14" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S14" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H15" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I15" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S15" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I16" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J16" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R16" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S16" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H17" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I17" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S17" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H18" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I18" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S18" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I19" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J19" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R19" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S19" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H20" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I20" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S20" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24060,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H21" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I21" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S21" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H22" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I22" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J22" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R22" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S22" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H23" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I23" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S23" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H24" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I24" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S24" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T24" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H25" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I25" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J25" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R25" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S25" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H26" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I26" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>84.01082088999308</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S26" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H27" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I27" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S27" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H28" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J28" t="n">
-        <v>60.10977774604451</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.78178798155719</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R28" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S28" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H29" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I29" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S29" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H30" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S30" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T30" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H31" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I31" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J31" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R31" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S31" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H32" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I32" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S32" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H33" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S33" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T33" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J34" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R34" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S34" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H35" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I35" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S35" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H36" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I36" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S36" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H37" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I37" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J37" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R37" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S37" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H38" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I38" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S38" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H39" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I39" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S39" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T39" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H40" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I40" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J40" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R40" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S40" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H41" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I41" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S41" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H42" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I42" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S42" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T42" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I43" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J43" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R43" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S43" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H44" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I44" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.0108208899931</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S44" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H45" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I45" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S45" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T45" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H46" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I46" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J46" t="n">
-        <v>60.10977774604452</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.7817879815572</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R46" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S46" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354774.4382537731</v>
+        <v>356883.332408023</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352201.3924031421</v>
+        <v>351935.4569748751</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="E2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="F2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="G2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="H2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="I2" t="n">
-        <v>76407.44210864045</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="J2" t="n">
-        <v>76407.44210864042</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="K2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.11124213031</v>
       </c>
       <c r="L2" t="n">
-        <v>76407.44210864045</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="M2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.1112421303</v>
       </c>
       <c r="N2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.11124213033</v>
       </c>
       <c r="O2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.11124213033</v>
       </c>
       <c r="P2" t="n">
-        <v>76407.44210864043</v>
+        <v>76801.11124213033</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>209524.6041377088</v>
+        <v>205368.4932914853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45814.66692941387</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>45814.66692941387</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>45814.66692941387</v>
+        <v>45933.62940400946</v>
       </c>
       <c r="E4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="F4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="G4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="H4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="I4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="J4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="K4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="L4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="M4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="N4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="O4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
       <c r="P4" t="n">
-        <v>16273.52361464597</v>
+        <v>15192.12306707271</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="F5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="G5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="H5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="I5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="J5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="K5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="L5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="M5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="N5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="O5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="P5" t="n">
-        <v>5685.361356880733</v>
+        <v>6074.278792600922</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9562.453333973695</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="C6" t="n">
-        <v>-9562.453333973695</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="D6" t="n">
-        <v>-9562.453333973695</v>
+        <v>-28853.5509502006</v>
       </c>
       <c r="E6" t="n">
-        <v>-155076.0470005951</v>
+        <v>-149833.7839090287</v>
       </c>
       <c r="F6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="G6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="H6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="I6" t="n">
-        <v>54448.55713711375</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="J6" t="n">
-        <v>54448.55713711372</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="K6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.70938245668</v>
       </c>
       <c r="L6" t="n">
-        <v>54448.55713711375</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="M6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.70938245667</v>
       </c>
       <c r="N6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.7093824567</v>
       </c>
       <c r="O6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.7093824567</v>
       </c>
       <c r="P6" t="n">
-        <v>54448.55713711373</v>
+        <v>55534.7093824567</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="F3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="G3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="H3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="I3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="J3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="K3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="L3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="M3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="N3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="O3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="P3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>255.6232591756383</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H11" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I11" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J11" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K11" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L11" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M11" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N11" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O11" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P11" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R11" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S11" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T11" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H12" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I12" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J12" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K12" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L12" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31853,25 +31853,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R12" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S12" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T12" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H13" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I13" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J13" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K13" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L13" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M13" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N13" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O13" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P13" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R13" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S13" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T13" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H14" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I14" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J14" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K14" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L14" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M14" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N14" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O14" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P14" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R14" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S14" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T14" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H15" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I15" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J15" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K15" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L15" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32090,25 +32090,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R15" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S15" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T15" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H16" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I16" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J16" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K16" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L16" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M16" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N16" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O16" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P16" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R16" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S16" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T16" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H17" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I17" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J17" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K17" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L17" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M17" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N17" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O17" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P17" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R17" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S17" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T17" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H18" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I18" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J18" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K18" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L18" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32327,25 +32327,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R18" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S18" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T18" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H19" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I19" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J19" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K19" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L19" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M19" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N19" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O19" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P19" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R19" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S19" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T19" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I20" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J20" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K20" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L20" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M20" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O20" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P20" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R20" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S20" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T20" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32540,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H21" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I21" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J21" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K21" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L21" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32564,25 +32564,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R21" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S21" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T21" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H22" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I22" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J22" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K22" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L22" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M22" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N22" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O22" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P22" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R22" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S22" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T22" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H23" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I23" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J23" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K23" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L23" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M23" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N23" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O23" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P23" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R23" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S23" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T23" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H24" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I24" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J24" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K24" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L24" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32801,25 +32801,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R24" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S24" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T24" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H25" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J25" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K25" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L25" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M25" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N25" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O25" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P25" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R25" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S25" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T25" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H26" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I26" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J26" t="n">
-        <v>88.98399123388617</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K26" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L26" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M26" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N26" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O26" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P26" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R26" t="n">
-        <v>65.8582970511566</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S26" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T26" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H27" t="n">
-        <v>5.417676003051488</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I27" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J27" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K27" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L27" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33038,25 +33038,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R27" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S27" t="n">
-        <v>10.41955398407041</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T27" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H28" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I28" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J28" t="n">
-        <v>33.24940237062826</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K28" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L28" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M28" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N28" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O28" t="n">
-        <v>66.47315263707451</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P28" t="n">
-        <v>56.87926567298936</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.38025527013719</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R28" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S28" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T28" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I29" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J29" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K29" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L29" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M29" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N29" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O29" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P29" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R29" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S29" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T29" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33251,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H30" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I30" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J30" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K30" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L30" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33275,25 +33275,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R30" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S30" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T30" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H31" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I31" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J31" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K31" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L31" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M31" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N31" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P31" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R31" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S31" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T31" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H32" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I32" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J32" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K32" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L32" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M32" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N32" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O32" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P32" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R32" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S32" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T32" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33488,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H33" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I33" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J33" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K33" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L33" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,25 +33512,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R33" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S33" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T33" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H34" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I34" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J34" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K34" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M34" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N34" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O34" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P34" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R34" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S34" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T34" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H35" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I35" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J35" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K35" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L35" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M35" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N35" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O35" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P35" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R35" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S35" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T35" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33725,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H36" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I36" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J36" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K36" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L36" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33749,25 +33749,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R36" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S36" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T36" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H37" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I37" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J37" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K37" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L37" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M37" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N37" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O37" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P37" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R37" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S37" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T37" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H38" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I38" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J38" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K38" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L38" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M38" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N38" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O38" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P38" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R38" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S38" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T38" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H39" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I39" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J39" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K39" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L39" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33986,25 +33986,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R39" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S39" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T39" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H40" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I40" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J40" t="n">
-        <v>33.24940237062825</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K40" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L40" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M40" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N40" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O40" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P40" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R40" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S40" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T40" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I41" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J41" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K41" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L41" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M41" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N41" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O41" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P41" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R41" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S41" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T41" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34199,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H42" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I42" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J42" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K42" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L42" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34223,25 +34223,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R42" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S42" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T42" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H43" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I43" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J43" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K43" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L43" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M43" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N43" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O43" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P43" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R43" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S43" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T43" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H44" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I44" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J44" t="n">
-        <v>88.98399123388616</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K44" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L44" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M44" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N44" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O44" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P44" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R44" t="n">
-        <v>65.85829705115658</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S44" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T44" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34436,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H45" t="n">
-        <v>5.417676003051487</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I45" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J45" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K45" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L45" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34460,25 +34460,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R45" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S45" t="n">
-        <v>10.4195539840704</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T45" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H46" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I46" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J46" t="n">
-        <v>33.24940237062825</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K46" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L46" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M46" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N46" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O46" t="n">
-        <v>66.47315263707449</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P46" t="n">
-        <v>56.87926567298935</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.38025527013718</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R46" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S46" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T46" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111432.1316913352</v>
+        <v>137274.2921716615</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9865703.132607052</v>
+        <v>10443482.4083753</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22079133.17442485</v>
+        <v>21919622.47264556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4079616.312177448</v>
+        <v>4100819.084538691</v>
       </c>
     </row>
     <row r="11">
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>44.00343544142169</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.5777144758769</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.97480228639999</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.97480228639998</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K44" t="n">
-        <v>77.60291342766286</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L44" t="n">
-        <v>58.99876929881117</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>33.65816793912805</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>41.36599235998582</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>70.15441326031711</v>
+        <v>44.67424062394011</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.3423827029069</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>70.21392947460487</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K45" t="n">
-        <v>41.06252158333071</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.5283497406852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.47761536183195</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6365977934563</v>
+        <v>95.66285413274993</v>
       </c>
       <c r="L46" t="n">
-        <v>60.18264937930154</v>
+        <v>78.2821831083989</v>
       </c>
       <c r="M46" t="n">
-        <v>60.16297057655852</v>
+        <v>74.52762556835066</v>
       </c>
       <c r="N46" t="n">
-        <v>50.7955347526062</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O46" t="n">
-        <v>67.4361694735309</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P46" t="n">
-        <v>76.9578092403323</v>
+        <v>100.9685080396867</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S12" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S15" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.94669922618534</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>57.83529218611378</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.08791033046782</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>321.2694563295859</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>304.8880345935582</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1825902111655</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H44" t="n">
-        <v>328.0030935389889</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I44" t="n">
-        <v>167.2914106341195</v>
+        <v>99.17357415002326</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>79.50566485817191</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>183.494712897039</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1924047410046</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7441855184499</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H45" t="n">
-        <v>106.4471622989392</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I45" t="n">
-        <v>68.761749468207</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.94669922618533</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S45" t="n">
-        <v>160.5508486671644</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T45" t="n">
-        <v>197.7490015828257</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>188.9411449599339</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>130.0369731548126</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4518140715032</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>98.82046599108767</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>101.5616058334398</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4885198403462</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7598506100387</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I46" t="n">
-        <v>140.3401468734729</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J46" t="n">
-        <v>57.83529218611377</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.08791033046781</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R46" t="n">
-        <v>154.7009843173077</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S46" t="n">
-        <v>215.2600989804104</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7987169418005</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>356883.332408023</v>
+        <v>354774.4382537731</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351935.4569748751</v>
+        <v>396372.0831743805</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>70918.35331670486</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="F2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="G2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="H2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="I2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="J2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="K2" t="n">
-        <v>76801.11124213031</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="L2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="M2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="N2" t="n">
-        <v>76801.11124213033</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="O2" t="n">
-        <v>76801.11124213033</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="P2" t="n">
-        <v>76801.11124213033</v>
+        <v>88579.31742243859</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>205368.4932914853</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>63045.37126823124</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
-      <c r="D4" t="n">
-        <v>45933.62940400946</v>
-      </c>
       <c r="E4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>15192.12306707271</v>
+        <v>8029.025061016888</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6074.278792600922</v>
+        <v>11679.08319048216</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="D6" t="n">
-        <v>-28853.5509502006</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="E6" t="n">
-        <v>-149833.7839090287</v>
+        <v>-197105.2330791188</v>
       </c>
       <c r="F6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="G6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="H6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="I6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="J6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="K6" t="n">
-        <v>55534.70938245668</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="L6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="M6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="N6" t="n">
-        <v>55534.7093824567</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="O6" t="n">
-        <v>55534.7093824567</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="P6" t="n">
-        <v>55534.7093824567</v>
+        <v>5825.837902708296</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>278.6366418624276</v>
+        <v>396.859943267568</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>255.6232591756383</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.03872476952546</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>95.07110224028629</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>5.788281937557224</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>35.523887930559</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.07413292122656</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.120147303969557</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H44" t="n">
-        <v>11.47170857677823</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I44" t="n">
-        <v>43.1844789362864</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07110224028631</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K44" t="n">
-        <v>142.4869376173177</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L44" t="n">
-        <v>176.7676456711761</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M44" t="n">
-        <v>196.6880652881447</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N44" t="n">
-        <v>199.8706838155482</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O44" t="n">
-        <v>188.7322190617009</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P44" t="n">
-        <v>161.0785824949524</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.9633071715426</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R44" t="n">
-        <v>70.36345308297777</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S44" t="n">
-        <v>25.52535668920632</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T44" t="n">
-        <v>4.90344482312674</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H45" t="n">
-        <v>5.788281937557223</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I45" t="n">
-        <v>20.63488338320808</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J45" t="n">
-        <v>56.62369719206183</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K45" t="n">
-        <v>96.77891739102829</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>130.1311976924479</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>163.8914845489274</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P45" t="n">
-        <v>114.446057673645</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.50415872418957</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R45" t="n">
-        <v>37.2111349264578</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S45" t="n">
-        <v>11.1323224366734</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T45" t="n">
-        <v>2.415727111995952</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H46" t="n">
-        <v>4.467321897400891</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I46" t="n">
-        <v>15.11032805378542</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J46" t="n">
-        <v>35.52388793055901</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K46" t="n">
-        <v>58.37666037707908</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L46" t="n">
-        <v>74.70202690193675</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M46" t="n">
-        <v>78.76281337104653</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N46" t="n">
-        <v>76.89000971262699</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O46" t="n">
-        <v>71.02036897831189</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P46" t="n">
-        <v>60.77019480881533</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.07413292122657</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R46" t="n">
-        <v>22.59240705986175</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S46" t="n">
-        <v>8.756499056561861</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T46" t="n">
-        <v>2.146872486480999</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.86418322768714</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>47.78308755128123</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38190,7 +38192,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137274.2921716615</v>
+        <v>15427.64769027543</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10443482.4083753</v>
+        <v>10737380.90523924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21919622.47264556</v>
+        <v>20893500.83560977</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4100819.084538691</v>
+        <v>4477318.945672093</v>
       </c>
     </row>
     <row r="11">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>72.90480589183396</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>30.86819141692553</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>52.459648918878</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>72.90480589183396</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>30.86819141692553</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
     </row>
     <row r="28">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.90480589183396</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>32.93853617077291</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30.86819141692553</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>72.90480589183396</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>32.93853617077291</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>30.86819141692553</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.90480589183399</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>32.93853617077291</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>30.86819141692553</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.90480589183396</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.93853617077299</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>56.47294340354554</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>52.45964891887809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>72.90480589183404</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>30.86819141692561</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>52.45964891887809</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="C44" t="n">
-        <v>44.00343544142169</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>32.93853617077299</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>49.65101377519441</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.03661447490843</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>30.86819141692561</v>
       </c>
       <c r="V45" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>52.45964891887809</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>48.91514234454729</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>88.84424253075456</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>164.942497445961</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>246.8859100628044</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>310.9274897078275</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>163.870103794524</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>19.80902244633733</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>125.4785492296028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>207.4219618464462</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>286.7498986808268</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>74.84339680884752</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>74.84339680884752</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>156.7868094256909</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>238.7302220425343</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>249.141082804746</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>310.4328217115329</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>310.4328217115329</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>226.8256258980002</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>163.870103794524</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>80.26290798099134</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>9.061933799719787</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>48.99103398592705</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>125.0892889011335</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>207.0327015179769</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>271.074281163</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>291.2312868767619</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>163.870103794524</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>163.870103794524</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>19.80902244633733</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>165.8069722334642</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>207.4219618464462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>286.7498986808268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>85.25425757105927</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>167.1976701879026</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>249.141082804746</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>249.141082804746</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>48.91514234454729</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>88.84424253075456</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>164.942497445961</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>246.8859100628044</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>310.9274897078275</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>207.1073301928435</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>19.80902244633733</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>165.8069722334642</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>207.4219618464462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>286.7498986808268</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>74.84339680884752</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>156.7868094256909</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>238.7302220425343</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>238.7302220425343</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>249.141082804746</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>46.47489845325929</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>48.91514234454729</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>88.84424253075456</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>164.942497445961</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>246.8859100628044</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>310.9274897078275</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>207.1073301928435</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>19.80902244633733</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>165.8069722334642</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>207.4219618464462</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>286.7498986808268</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>88.56510252527517</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>88.56510252527517</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>170.5085151421185</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>252.4519277589619</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>257.4432773490298</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>257.4432773490298</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>257.4432773490298</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>257.4432773490298</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>39.89293856577817</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>46.47489845325938</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>48.91514234454738</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>88.84424253075464</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>164.9424974459611</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>246.8859100628044</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>310.9274897078275</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>290.7145260063762</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>207.1073301928435</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>207.1073301928435</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>207.1073301928435</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>123.5001343793109</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>19.80902244633733</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>165.8069722334642</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>207.4219618464462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>286.7498986808268</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>288.6232686792576</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>205.016072865725</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>121.4088770521923</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>37.8016812386596</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>74.84339680884752</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>85.25425757105927</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>167.1976701879026</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>249.141082804746</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>331.0844954215894</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>247.4772996080567</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>173.8360815354972</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>90.22888572196447</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>6.621689908431788</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>123.500134379311</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>123.500134379311</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>123.500134379311</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>39.89293856577825</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>39.89293856577825</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>39.89293856577825</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.061933799719794</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>48.99103398592706</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>125.0892889011335</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>207.0327015179769</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>271.074281163</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>291.2312868767619</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>207.1073301928438</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>123.500134379311</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>147.9726956904267</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>64.36549987689394</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>64.36549987689394</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>19.80902244633734</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.86355961662083</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>165.8069722334643</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>207.4219618464465</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>286.7498986808272</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>74.84339680884752</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>156.786809425691</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>156.786809425691</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>167.1976701879028</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>249.1410828047463</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8256258980005</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>173.8360815354973</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>163.8701037945242</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>46.47489845325963</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>48.91514234454763</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>88.8442425307549</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>164.9424974459613</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>246.8859100628048</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>310.9274897078278</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>247.477299608057</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>70.67622707871529</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>152.6196396955588</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>207.4219618464465</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>286.7498986808272</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>288.623268679258</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.0160728657252</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>121.4088770521925</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>37.80168123865968</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>88.56510252527525</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>170.5085151421187</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>252.4519277589622</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>226.8256258980005</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8256258980005</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>143.2184300844677</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>149.0274889416357</v>
+        <v>123.500134379311</v>
       </c>
       <c r="C44" t="n">
-        <v>104.579574354341</v>
+        <v>123.500134379311</v>
       </c>
       <c r="D44" t="n">
-        <v>54.28158745825552</v>
+        <v>123.500134379311</v>
       </c>
       <c r="E44" t="n">
-        <v>54.28158745825552</v>
+        <v>39.89293856577825</v>
       </c>
       <c r="F44" t="n">
-        <v>54.28158745825552</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="G44" t="n">
-        <v>54.28158745825552</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H44" t="n">
-        <v>54.28158745825552</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I44" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J44" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K44" t="n">
-        <v>3.983600562169975</v>
+        <v>9.061933799719794</v>
       </c>
       <c r="L44" t="n">
-        <v>19.82590800208273</v>
+        <v>48.99103398592706</v>
       </c>
       <c r="M44" t="n">
-        <v>69.12296495893617</v>
+        <v>125.0892889011335</v>
       </c>
       <c r="N44" t="n">
-        <v>118.4200219157896</v>
+        <v>207.0327015179769</v>
       </c>
       <c r="O44" t="n">
-        <v>156.7444867130885</v>
+        <v>271.074281163</v>
       </c>
       <c r="P44" t="n">
-        <v>199.1800281084987</v>
+        <v>291.2312868767619</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.1800281084987</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R44" t="n">
-        <v>149.0274889416357</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="S44" t="n">
-        <v>149.0274889416357</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="T44" t="n">
-        <v>149.0274889416357</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="U44" t="n">
-        <v>149.0274889416357</v>
+        <v>290.7145260063766</v>
       </c>
       <c r="V44" t="n">
-        <v>149.0274889416357</v>
+        <v>207.1073301928438</v>
       </c>
       <c r="W44" t="n">
-        <v>149.0274889416357</v>
+        <v>207.1073301928438</v>
       </c>
       <c r="X44" t="n">
-        <v>149.0274889416357</v>
+        <v>207.1073301928438</v>
       </c>
       <c r="Y44" t="n">
-        <v>149.0274889416357</v>
+        <v>207.1073301928438</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.983600562169975</v>
+        <v>173.8360815354973</v>
       </c>
       <c r="C45" t="n">
-        <v>3.983600562169975</v>
+        <v>173.8360815354973</v>
       </c>
       <c r="D45" t="n">
-        <v>3.983600562169975</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="E45" t="n">
-        <v>3.983600562169975</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="F45" t="n">
-        <v>3.983600562169975</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="G45" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H45" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I45" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J45" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K45" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="L45" t="n">
-        <v>50.30614171732424</v>
+        <v>70.67622707871529</v>
       </c>
       <c r="M45" t="n">
-        <v>71.84601783796424</v>
+        <v>152.6196396955588</v>
       </c>
       <c r="N45" t="n">
-        <v>121.1430747948177</v>
+        <v>207.4219618464465</v>
       </c>
       <c r="O45" t="n">
-        <v>170.4401317516711</v>
+        <v>286.7498986808272</v>
       </c>
       <c r="P45" t="n">
-        <v>199.1800281084987</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.1800281084987</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="R45" t="n">
-        <v>199.1800281084987</v>
+        <v>288.623268679258</v>
       </c>
       <c r="S45" t="n">
-        <v>199.1800281084987</v>
+        <v>288.623268679258</v>
       </c>
       <c r="T45" t="n">
-        <v>199.1800281084987</v>
+        <v>288.623268679258</v>
       </c>
       <c r="U45" t="n">
-        <v>199.1800281084987</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="V45" t="n">
-        <v>154.8775612504266</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="W45" t="n">
-        <v>104.579574354341</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="X45" t="n">
-        <v>54.28158745825552</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.983600562169975</v>
+        <v>257.4432773490301</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.8820412124132</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="C46" t="n">
-        <v>98.58405431632764</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="D46" t="n">
-        <v>48.2860674202421</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="E46" t="n">
-        <v>48.2860674202421</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="F46" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="G46" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="H46" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="I46" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="J46" t="n">
-        <v>3.983600562169975</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="K46" t="n">
-        <v>53.28065751902341</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5777144758769</v>
+        <v>88.56510252527525</v>
       </c>
       <c r="M46" t="n">
-        <v>149.8829711516453</v>
+        <v>170.5085151421187</v>
       </c>
       <c r="N46" t="n">
-        <v>149.8829711516453</v>
+        <v>252.4519277589622</v>
       </c>
       <c r="O46" t="n">
-        <v>149.8829711516453</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="P46" t="n">
-        <v>199.1800281084987</v>
+        <v>331.0844954215897</v>
       </c>
       <c r="Q46" t="n">
-        <v>199.1800281084987</v>
+        <v>310.4328217115332</v>
       </c>
       <c r="R46" t="n">
-        <v>199.1800281084987</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="S46" t="n">
-        <v>199.1800281084987</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="T46" t="n">
-        <v>199.1800281084987</v>
+        <v>257.4432773490301</v>
       </c>
       <c r="U46" t="n">
-        <v>199.1800281084987</v>
+        <v>173.8360815354973</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1800281084987</v>
+        <v>173.8360815354973</v>
       </c>
       <c r="W46" t="n">
-        <v>199.1800281084987</v>
+        <v>90.22888572196456</v>
       </c>
       <c r="X46" t="n">
-        <v>199.1800281084987</v>
+        <v>6.621689908431795</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.1800281084987</v>
+        <v>6.621689908431795</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>32.55141680862371</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>40.25576620689647</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>33.36936844922761</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>18.20527575985206</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>98.67483961232966</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>90.35978994368941</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>38.04365399962605</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>125.580285753602</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>32.55141680862371</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>73.62513465612409</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>37.83295129372755</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>97.63211178270809</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>98.67483961232966</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>90.35978994368941</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>27.52763302769497</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>125.580285753602</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>32.55141680862371</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>40.25576620689647</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>33.36936844922761</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>100.9763996152494</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>98.67483961232966</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>7.588666088292058</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>38.04365399962605</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>125.580285753602</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>72.80718301552018</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>33.36936844922761</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>37.83295129372755</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>100.9763996152494</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>15.90371575693231</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>90.35978994368941</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>110.2987568830923</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>122.2359979210607</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>72.80718301552027</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>33.36936844922761</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>28.72129673178312</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>98.67483961232966</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>90.35978994368941</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>110.2987568830923</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>42.80916189820464</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>32.55141680862371</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>73.62513465612443</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>100.9763996152495</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>15.90371575693231</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>18.1046870602232</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>110.2987568830924</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>125.5802857536021</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>72.80718301552052</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>33.36936844922761</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>37.83295129372755</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>100.9763996152495</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>98.67483961232975</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>90.35978994368949</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>106.9544690505511</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>42.80916189820464</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.63689302957772</v>
+        <v>32.55141680862371</v>
       </c>
       <c r="K44" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>44.67424062394011</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.01861771953256</v>
+        <v>73.62513465612443</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>46.18894706358476</v>
+        <v>38.39532707087105</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.01751192697151</v>
+        <v>20.48756827217647</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>95.66285413274993</v>
+        <v>37.83295129372755</v>
       </c>
       <c r="L46" t="n">
-        <v>78.2821831083989</v>
+        <v>100.9763996152495</v>
       </c>
       <c r="M46" t="n">
-        <v>74.52762556835066</v>
+        <v>98.67483961232975</v>
       </c>
       <c r="N46" t="n">
-        <v>18.17171782551226</v>
+        <v>90.35978994368949</v>
       </c>
       <c r="O46" t="n">
-        <v>37.30279422357805</v>
+        <v>106.9544690505511</v>
       </c>
       <c r="P46" t="n">
-        <v>100.9685080396867</v>
+        <v>42.80916189820464</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7153796194687</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>228.7821251054134</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>214.5661913080829</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>378.1715550558377</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>402.8575836976996</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>62.93700469168593</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>221.8767622871533</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>201.2106985958346</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4155006025573</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>248.6519806732758</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>132.6658839586544</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>168.4345616418152</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>244.9811346147376</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>83.76205979446999</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>53.63627872131121</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>72.32635668151133</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>196.3915299887014</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8797955950207</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>168.9238593055223</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>127.5684281500537</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>172.1326741375647</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>203.5050978452828</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>203.7518744811937</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5017679156102</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>248.6519806732758</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>168.4345616418152</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>286.9599768230717</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>89.93737513291839</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.4074025767086</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>72.32635668151133</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>113.620406133304</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8797955950207</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>122.911571921907</v>
       </c>
     </row>
     <row r="28">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>59.23448991514525</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>137.4347461136171</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>141.8211992010453</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2762217006802</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.3665194684307</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>348.9918339014889</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>324.1049218863141</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>321.5567865651097</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>86.38010361093046</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>132.6658839586544</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2056854972125</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,22 +24764,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>64.6739417092414</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>62.29808853798653</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.4074025767086</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>72.32635668151133</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>113.620406133304</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8797955950207</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.66283879117182</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.6499241675339</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>210.3395520054511</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>224.5923230564427</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>203.5050978452828</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>213.618192444757</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>348.9918339014889</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>321.5567865651097</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>168.4345616418152</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.9811346147376</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.9599768230717</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>135.6649922329418</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>64.6739417092414</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>74.87395660000359</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.4074025767086</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>103.1945480984369</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>113.620406133304</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8797955950207</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>137.4347461136171</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>224.5923230564427</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2762217006802</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>203.7518744811937</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.9385315336398</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8135294966974</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5017679156102</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>348.9918339014889</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>321.5567865651097</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2056854972125</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.9811346147376</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4668148006563</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>141.8403075713902</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.4074025767086</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>103.1945480984369</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>71.52412938073729</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>196.3915299887014</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>143.1086717396234</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>168.9238593055223</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>20.44515697295594</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>127.5684281500537</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>151.6875171646087</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>203.5050978452828</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.3665194684307</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>299.1592462168643</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>288.6182503943368</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2056854972125</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.9599768230716</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4668148006562</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>88.59626898983834</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>53.63627872131113</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>103.1945480984369</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>196.3915299887014</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>143.1086717396233</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>210.3395520054511</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>141.8211992010453</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>233.8165727818021</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.3665194684306</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>203.7518744811936</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>271.9119177652855</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>309.0255641804278</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>238.7856627097123</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>39.96626972106105</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2056854972125</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>244.9811346147375</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25718,16 +25718,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>114.2010209764583</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.4074025767086</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>103.1945480984369</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>196.3915299887014</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8797955950207</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>150.0294632940278</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>168.9238593055222</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>123.00186134808</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>114.7871721797497</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>63.66283879117174</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>142.0056137705426</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>127.5684281500536</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>224.5923230564427</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>203.5050978452828</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>299.9627178080831</v>
       </c>
       <c r="C44" t="n">
-        <v>321.2694563295859</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>304.8880345935582</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>299.1592462168643</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>373.9375095709385</v>
       </c>
       <c r="G44" t="n">
-        <v>413.707320657778</v>
+        <v>413.5531448823356</v>
       </c>
       <c r="H44" t="n">
-        <v>323.1357392253592</v>
+        <v>321.5567865651097</v>
       </c>
       <c r="I44" t="n">
-        <v>99.17357415002326</v>
+        <v>143.024719594405</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>172.6645079492214</v>
+        <v>169.1512274663278</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1119122710508</v>
+        <v>215.4370078140518</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2056854972125</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>244.9811346147375</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>83.76205979446991</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>64.67394170924132</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4898938890125</v>
+        <v>53.63627872131113</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9912405093721</v>
+        <v>103.1945480984369</v>
       </c>
       <c r="I45" t="n">
-        <v>60.0065332792414</v>
+        <v>57.16637186877752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>155.8274931817798</v>
+        <v>154.2952532361346</v>
       </c>
       <c r="T45" t="n">
-        <v>196.7240278659264</v>
+        <v>196.3915299887014</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8852226550407</v>
+        <v>195.0116041780951</v>
       </c>
       <c r="V45" t="n">
-        <v>188.9411449599339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>201.8999761337949</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.0369731548126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>117.4518140715032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>98.82046599108767</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>101.5616058334398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2753302804353</v>
+        <v>167.2061723352624</v>
       </c>
       <c r="H46" t="n">
-        <v>155.8644016137399</v>
+        <v>155.2495246102942</v>
       </c>
       <c r="I46" t="n">
-        <v>133.9289553808794</v>
+        <v>131.8491873569546</v>
       </c>
       <c r="J46" t="n">
-        <v>42.76279030041251</v>
+        <v>37.87332357669354</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>145.11520646895</v>
+        <v>89.54596485166451</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5447863772357</v>
+        <v>210.3395520054511</v>
       </c>
       <c r="T46" t="n">
-        <v>224.8878160949084</v>
+        <v>224.5923230564427</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2799939522351</v>
+        <v>203.5050978452828</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>203.7518744811936</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>142.9385315336397</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351625.7508975847</v>
+        <v>355695.015075356</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351625.7508975847</v>
+        <v>355695.0150753561</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368212</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368213</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368212</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368211</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368212</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368214</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351625.7508975847</v>
+        <v>426006.5349368212</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396372.0831743805</v>
+        <v>426006.5349368213</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E2" t="n">
         <v>77709.90440324532</v>
@@ -26328,34 +26328,34 @@
         <v>77709.90440324532</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.90440324532</v>
+        <v>78690.36860402084</v>
       </c>
       <c r="H2" t="n">
-        <v>77709.90440324532</v>
+        <v>78690.36860402086</v>
       </c>
       <c r="I2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="J2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228206</v>
       </c>
       <c r="K2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="L2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="M2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="N2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="O2" t="n">
-        <v>77709.90440324532</v>
+        <v>95497.94158228204</v>
       </c>
       <c r="P2" t="n">
-        <v>88579.31742243859</v>
+        <v>95497.94158228203</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6195.437630976988</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>102869.3965176397</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1097.918834415866</v>
       </c>
       <c r="P3" t="n">
-        <v>63045.37126823124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,34 +26432,34 @@
         <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>10897.70851412389</v>
+        <v>10671.97046685471</v>
       </c>
       <c r="H4" t="n">
-        <v>10897.70851412389</v>
+        <v>10671.97046685471</v>
       </c>
       <c r="I4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507746</v>
       </c>
       <c r="J4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507746</v>
       </c>
       <c r="K4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507746</v>
       </c>
       <c r="L4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507747</v>
       </c>
       <c r="M4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507747</v>
       </c>
       <c r="N4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507754</v>
       </c>
       <c r="O4" t="n">
-        <v>10897.70851412389</v>
+        <v>7356.566181507755</v>
       </c>
       <c r="P4" t="n">
-        <v>8029.025061016888</v>
+        <v>7356.566181507754</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.08777992139</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.08777992139</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.08777992139</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.08777992139</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.08777992139</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.0877799214</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>14520.0877799214</v>
       </c>
       <c r="P5" t="n">
-        <v>11679.08319048216</v>
+        <v>14520.0877799214</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374547</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="E6" t="n">
-        <v>-197105.2330791188</v>
+        <v>-211653.5923716301</v>
       </c>
       <c r="F6" t="n">
-        <v>59840.0933258641</v>
+        <v>45291.73403335281</v>
       </c>
       <c r="G6" t="n">
-        <v>59840.0933258641</v>
+        <v>39961.87929371859</v>
       </c>
       <c r="H6" t="n">
-        <v>59840.0933258641</v>
+        <v>46157.31692469561</v>
       </c>
       <c r="I6" t="n">
-        <v>59840.0933258641</v>
+        <v>-42428.15763706453</v>
       </c>
       <c r="J6" t="n">
-        <v>59840.0933258641</v>
+        <v>60441.23888057523</v>
       </c>
       <c r="K6" t="n">
-        <v>59840.0933258641</v>
+        <v>60441.23888057521</v>
       </c>
       <c r="L6" t="n">
-        <v>59840.0933258641</v>
+        <v>60441.23888057521</v>
       </c>
       <c r="M6" t="n">
-        <v>59840.0933258641</v>
+        <v>60441.23888057521</v>
       </c>
       <c r="N6" t="n">
-        <v>59840.0933258641</v>
+        <v>60441.23888057521</v>
       </c>
       <c r="O6" t="n">
-        <v>59840.0933258641</v>
+        <v>59343.32004615934</v>
       </c>
       <c r="P6" t="n">
-        <v>5825.837902708296</v>
+        <v>60441.2388805752</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>435.2111674088638</v>
       </c>
       <c r="P3" t="n">
-        <v>396.859943267568</v>
+        <v>435.2111674088638</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="P4" t="n">
-        <v>49.79500702712468</v>
+        <v>82.77112385539743</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.360213490542208</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>109.0297354202791</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>77.03872476952546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>78.20883724775447</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>135.7196638785462</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>184.1693769654345</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>214.1128359387307</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774157</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>173.3770551267494</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774157</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>173.3770551267494</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774157</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>173.3770551267494</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774157</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>173.3770551267494</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>151.1619768914353</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774158</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>173.3770551267497</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>224.9051577774158</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>186.697593043826</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.595416857357056</v>
+        <v>1.749592632799451</v>
       </c>
       <c r="H44" t="n">
-        <v>16.33906289040796</v>
+        <v>17.91801555065739</v>
       </c>
       <c r="I44" t="n">
-        <v>61.50730839325797</v>
+        <v>67.45116997600091</v>
       </c>
       <c r="J44" t="n">
-        <v>135.4090114971086</v>
+        <v>148.4944877180626</v>
       </c>
       <c r="K44" t="n">
-        <v>202.9430070690328</v>
+        <v>222.5547438644634</v>
       </c>
       <c r="L44" t="n">
-        <v>251.7687457173739</v>
+        <v>276.0988394004996</v>
       </c>
       <c r="M44" t="n">
-        <v>280.1412402543974</v>
+        <v>307.2131573840469</v>
       </c>
       <c r="N44" t="n">
-        <v>279.2080706237156</v>
+        <v>312.1841874519884</v>
       </c>
       <c r="O44" t="n">
-        <v>268.8097920250189</v>
+        <v>294.7866757095888</v>
       </c>
       <c r="P44" t="n">
-        <v>229.4229383590166</v>
+        <v>251.5936075873523</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.2870721549169</v>
+        <v>188.9363214252219</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2181041659553</v>
+        <v>109.9028482200886</v>
       </c>
       <c r="S44" t="n">
-        <v>36.35556163702395</v>
+        <v>39.86884211991754</v>
       </c>
       <c r="T44" t="n">
-        <v>6.983937293080517</v>
+        <v>7.658841750079602</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1399674106239561</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.9361145865020846</v>
       </c>
       <c r="H45" t="n">
-        <v>8.244203727124386</v>
+        <v>9.040896138059606</v>
       </c>
       <c r="I45" t="n">
-        <v>29.39009957217367</v>
+        <v>32.23026098263756</v>
       </c>
       <c r="J45" t="n">
-        <v>80.64867960308193</v>
+        <v>88.44229959579565</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3448253911411</v>
+        <v>203.2559324771302</v>
       </c>
       <c r="M45" t="n">
-        <v>163.8914845489274</v>
+        <v>224.9051577774158</v>
       </c>
       <c r="N45" t="n">
-        <v>181.136719110458</v>
+        <v>186.697593043826</v>
       </c>
       <c r="O45" t="n">
-        <v>192.3912514715691</v>
+        <v>222.7254735700815</v>
       </c>
       <c r="P45" t="n">
-        <v>163.0046057545602</v>
+        <v>178.7568283645954</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.96426215905</v>
+        <v>119.494205813845</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99952223486505</v>
+        <v>58.12121967773471</v>
       </c>
       <c r="S45" t="n">
-        <v>15.85567792205802</v>
+        <v>17.38791786770318</v>
       </c>
       <c r="T45" t="n">
-        <v>3.440700828895235</v>
+        <v>3.773198706120243</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.06158648595408453</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.7848070231963118</v>
       </c>
       <c r="H46" t="n">
-        <v>6.362770893699701</v>
+        <v>6.977647897145395</v>
       </c>
       <c r="I46" t="n">
-        <v>21.52151954637894</v>
+        <v>23.60128757030364</v>
       </c>
       <c r="J46" t="n">
-        <v>50.59638981626026</v>
+        <v>55.48585653997924</v>
       </c>
       <c r="K46" t="n">
-        <v>83.14541106491014</v>
+        <v>91.18030687680783</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3975001999641</v>
+        <v>116.6794005213862</v>
       </c>
       <c r="M46" t="n">
-        <v>112.1812459305356</v>
+        <v>123.0220681906727</v>
       </c>
       <c r="N46" t="n">
-        <v>109.5138266397209</v>
+        <v>120.0968783769411</v>
       </c>
       <c r="O46" t="n">
-        <v>101.1537442282647</v>
+        <v>110.9289054241478</v>
       </c>
       <c r="P46" t="n">
-        <v>86.55450303658561</v>
+        <v>94.91884215094298</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.92585143340277</v>
+        <v>65.71688627873844</v>
       </c>
       <c r="R46" t="n">
-        <v>32.17818490821952</v>
+        <v>35.28777760662688</v>
       </c>
       <c r="S46" t="n">
-        <v>12.47181165973652</v>
+        <v>13.67704603152117</v>
       </c>
       <c r="T46" t="n">
-        <v>3.057773333373064</v>
+        <v>3.353266371838786</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.04280765581070797</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>42.72065902637929</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>42.03534304341613</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>68.91081505092498</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>10.51602097193108</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>40.25576620689647</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>42.03534304341615</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>79.42683602285604</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>42.72065902637929</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>42.03534304341615</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>68.91081505092498</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>10.51602097193108</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>40.25576620689647</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>42.03534304341615</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>79.42683602285604</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>40.25576620689655</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>42.03534304341615</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>68.91081505092498</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>10.51602097193106</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>82.77112385539735</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>40.25576620689682</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>13.32053791707631</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>42.03534304341638</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>68.91081505092498</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>10.51602097193114</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>40.25576620689681</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>55.35588096049269</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>79.42683602285612</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.464892819482827</v>
       </c>
       <c r="L44" t="n">
-        <v>16.00233074738662</v>
+        <v>40.33242443051239</v>
       </c>
       <c r="M44" t="n">
-        <v>49.79500702712468</v>
+        <v>76.86692415677416</v>
       </c>
       <c r="N44" t="n">
-        <v>49.79500702712468</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O44" t="n">
-        <v>38.71158060333218</v>
+        <v>64.68846428790206</v>
       </c>
       <c r="P44" t="n">
-        <v>42.86418322768714</v>
+        <v>20.36061183208275</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40.25576620689682</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.79044561126693</v>
+        <v>64.70155269725606</v>
       </c>
       <c r="M45" t="n">
-        <v>21.75745062690909</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="N45" t="n">
-        <v>49.79500702712468</v>
+        <v>55.35588096049269</v>
       </c>
       <c r="O45" t="n">
-        <v>49.79500702712468</v>
+        <v>80.12922912563704</v>
       </c>
       <c r="P45" t="n">
-        <v>29.03019834022993</v>
+        <v>44.78242095026519</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>49.79500702712468</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="M46" t="n">
-        <v>47.78308755128123</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>82.77112385539743</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.42683602285612</v>
       </c>
       <c r="P46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15427.64769027543</v>
+        <v>124395.7659840767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10737380.90523924</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20893500.83560977</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4477318.945672093</v>
+        <v>4074979.192601176</v>
       </c>
     </row>
     <row r="11">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>72.90480589183396</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30.86819141692553</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.44515697295594</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>52.459648918878</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>72.90480589183396</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30.86819141692553</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.90480589183396</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>32.93853617077291</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.96626972106105</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>30.86819141692553</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>72.90480589183396</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>32.93853617077291</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.96626972106105</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.86819141692553</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.90480589183399</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>32.93853617077291</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>39.96626972106105</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>30.86819141692553</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.90480589183396</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>32.93853617077299</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.96626972106105</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>56.47294340354554</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>57.16637186877752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.44515697295594</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.45964891887809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>72.90480589183404</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>30.86819141692561</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>52.45964891887809</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.44515697295594</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>32.93853617077299</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.96626972106105</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.03661447490843</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>30.86819141692561</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.44515697295594</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>52.45964891887809</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>48.91514234454729</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>88.84424253075456</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>164.942497445961</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>246.8859100628044</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>310.9274897078275</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>163.870103794524</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>19.80902244633733</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>125.4785492296028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>207.4219618464462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>286.7498986808268</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>74.84339680884752</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84339680884752</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>156.7868094256909</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>238.7302220425343</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>249.141082804746</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>310.4328217115329</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>310.4328217115329</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>226.8256258980002</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>163.870103794524</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>80.26290798099134</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>9.061933799719787</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>48.99103398592705</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>125.0892889011335</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>207.0327015179769</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>271.074281163</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>291.2312868767619</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>163.870103794524</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>163.870103794524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>19.80902244633733</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>165.8069722334642</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>207.4219618464462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>286.7498986808268</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>85.25425757105927</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>167.1976701879026</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>249.141082804746</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>249.141082804746</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>48.91514234454729</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>88.84424253075456</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>164.942497445961</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>246.8859100628044</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>310.9274897078275</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>207.1073301928435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>19.80902244633733</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>165.8069722334642</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>207.4219618464462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>286.7498986808268</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>74.84339680884752</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7868094256909</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>238.7302220425343</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>238.7302220425343</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>249.141082804746</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>46.47489845325929</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.91514234454729</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>88.84424253075456</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>164.942497445961</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>246.8859100628044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>310.9274897078275</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>207.1073301928435</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>19.80902244633733</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>165.8069722334642</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>207.4219618464462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>286.7498986808268</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>88.56510252527517</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>88.56510252527517</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>170.5085151421185</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>252.4519277589619</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>257.4432773490298</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>257.4432773490298</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>257.4432773490298</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>257.4432773490298</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>39.89293856577817</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.47489845325938</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>48.91514234454738</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>88.84424253075464</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>164.9424974459611</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>246.8859100628044</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>310.9274897078275</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>290.7145260063762</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>207.1073301928435</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>207.1073301928435</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>207.1073301928435</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>123.5001343793109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>19.80902244633733</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>165.8069722334642</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>207.4219618464462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>286.7498986808268</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>288.6232686792576</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>205.016072865725</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>121.4088770521923</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.8016812386596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>74.84339680884752</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>85.25425757105927</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>167.1976701879026</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>249.141082804746</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>331.0844954215894</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>247.4772996080567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>173.8360815354972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>90.22888572196447</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.621689908431788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>39.89293856577825</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>39.89293856577825</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>39.89293856577825</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9.061933799719794</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>48.99103398592706</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>125.0892889011335</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>207.0327015179769</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>271.074281163</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>291.2312868767619</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>207.1073301928438</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>147.9726956904267</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>64.36549987689394</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>64.36549987689394</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>19.80902244633734</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.86355961662083</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>165.8069722334643</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>207.4219618464465</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>286.7498986808272</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>74.84339680884752</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.786809425691</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>156.786809425691</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>167.1976701879028</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>249.1410828047463</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8256258980005</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>173.8360815354973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>163.8701037945242</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.47489845325963</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>48.91514234454763</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>88.8442425307549</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>164.9424974459613</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>246.8859100628048</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>310.9274897078278</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>247.477299608057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.67622707871529</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>152.6196396955588</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>207.4219618464465</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>286.7498986808272</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.0160728657252</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>121.4088770521925</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.80168123865968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>88.56510252527525</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>170.5085151421187</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>252.4519277589622</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>226.8256258980005</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8256258980005</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.2184300844677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>123.500134379311</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>39.89293856577825</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.061933799719794</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>48.99103398592706</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>125.0892889011335</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>207.0327015179769</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>271.074281163</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>291.2312868767619</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>290.7145260063766</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>207.1073301928438</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>207.1073301928438</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>207.1073301928438</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>207.1073301928438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>173.8360815354973</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>173.8360815354973</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>70.67622707871529</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>152.6196396955588</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>207.4219618464465</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>286.7498986808272</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>288.623268679258</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>88.56510252527525</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>170.5085151421187</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>252.4519277589622</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>331.0844954215897</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>310.4328217115332</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>257.4432773490301</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>173.8360815354973</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>173.8360815354973</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>90.22888572196456</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.621689908431795</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>33.39854548300258</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.474515194684224</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>47.23127172271754</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>65.23786115827478</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>51.99825569640058</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>42.05346274136652</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>71.15065506373918</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.658850007114239</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.72420959127265</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>47.04693691028752</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>51.81392088397056</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>51.285670034278</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>42.23779755379654</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>59.87999055852636</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.55141680862371</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>40.25576620689647</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.36936844922761</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>18.20527575985206</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>98.67483961232966</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>90.35978994368941</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>38.04365399962605</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>125.580285753602</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>32.55141680862371</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>73.62513465612409</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>37.83295129372755</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>97.63211178270809</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>98.67483961232966</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>90.35978994368941</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>27.52763302769497</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>125.580285753602</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>32.55141680862371</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>40.25576620689647</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.36936844922761</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>100.9763996152494</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>98.67483961232966</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>7.588666088292058</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>38.04365399962605</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>125.580285753602</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.80718301552018</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.36936844922761</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>37.83295129372755</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>100.9763996152494</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>15.90371575693231</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>90.35978994368941</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>110.2987568830923</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>122.2359979210607</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.80718301552027</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.36936844922761</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>28.72129673178312</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>98.67483961232966</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>90.35978994368941</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>110.2987568830923</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>42.80916189820464</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>32.55141680862371</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.62513465612443</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>100.9763996152495</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>15.90371575693231</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>18.1046870602232</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>110.2987568830924</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>125.5802857536021</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.80718301552052</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.36936844922761</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>37.83295129372755</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>100.9763996152495</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>98.67483961232975</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>90.35978994368949</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>106.9544690505511</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>42.80916189820464</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>32.55141680862371</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.62513465612443</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>38.39532707087105</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.48756827217647</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>37.83295129372755</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>100.9763996152495</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>98.67483961232975</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>90.35978994368949</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>106.9544690505511</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>42.80916189820464</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.7153796194687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>350.1207550130401</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>212.7934253945587</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59722706556381</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
-        <v>154.0890131332548</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
-        <v>228.7821251054134</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.34636041377521</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>146.2836725955014</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.5661913080829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.1715550558377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>402.8575836976996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.93700469168593</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.03494045792093</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>221.8767622871533</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4155006025573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.34636041377521</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>146.2836725955014</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>248.6519806732758</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.96626972106105</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>132.6658839586544</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4345616418152</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
-        <v>244.9811346147376</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.76205979446999</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>53.63627872131121</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>72.32635668151133</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>196.3915299887014</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8797955950207</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>168.9238593055223</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>127.5684281500537</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>172.1326741375647</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5050978452828</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.7518744811937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5017679156102</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>248.6519806732758</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>39.96626972106105</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4345616418152</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>286.9599768230717</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>89.93737513291839</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4074025767086</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>72.32635668151133</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>113.620406133304</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8797955950207</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.911571921907</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.44515697295594</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>59.23448991514525</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>137.4347461136171</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>141.8211992010453</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2762217006802</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3665194684307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>348.9918339014889</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1049218863141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>321.5567865651097</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
-        <v>86.38010361093046</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>132.6658839586544</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2056854972125</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,22 +24764,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>64.6739417092414</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>62.29808853798653</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.4074025767086</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>72.32635668151133</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>113.620406133304</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8797955950207</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.66283879117182</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.6499241675339</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.44515697295594</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>210.3395520054511</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>224.5923230564427</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5050978452828</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>213.618192444757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>348.9918339014889</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>321.5567865651097</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>168.4345616418152</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
-        <v>244.9811346147376</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>286.9599768230717</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>135.6649922329418</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.6739417092414</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>74.87395660000359</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4074025767086</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1945480984369</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>113.620406133304</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8797955950207</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.44515697295594</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>137.4347461136171</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>224.5923230564427</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2762217006802</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.7518744811937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.9385315336398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.8135294966974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5017679156102</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>348.9918339014889</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>321.5567865651097</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2056854972125</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
-        <v>244.9811346147376</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.4668148006563</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>141.8403075713902</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4074025767086</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>103.1945480984369</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52412938073729</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>196.3915299887014</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>143.1086717396234</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>168.9238593055223</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.44515697295594</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>127.5684281500537</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>151.6875171646087</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5050978452828</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
-        <v>169.3665194684307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>299.1592462168643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>288.6182503943368</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2056854972125</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>286.9599768230716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.4668148006562</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>88.59626898983834</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>53.63627872131113</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>103.1945480984369</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>196.3915299887014</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>143.1086717396233</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>210.3395520054511</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>141.8211992010453</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>233.8165727818021</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
-        <v>169.3665194684306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.7518744811936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9119177652855</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>309.0255641804278</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>238.7856627097123</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>39.96626972106105</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2056854972125</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
-        <v>244.9811346147375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25718,16 +25718,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>114.2010209764583</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.4074025767086</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>103.1945480984369</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>196.3915299887014</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8797955950207</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
-        <v>150.0294632940278</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>168.9238593055222</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>123.00186134808</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>114.7871721797497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.66283879117174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>142.0056137705426</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>127.5684281500536</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>224.5923230564427</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5050978452828</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299.9627178080831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>299.1592462168643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>373.9375095709385</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.5531448823356</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>321.5567865651097</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>143.024719594405</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
-        <v>169.1512274663278</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>215.4370078140518</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2056854972125</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
-        <v>244.9811346147375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.76205979446991</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>64.67394170924132</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>53.63627872131113</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>103.1945480984369</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>57.16637186877752</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>154.2952532361346</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>196.3915299887014</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>195.0116041780951</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2061723352624</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>155.2495246102942</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>131.8491873569546</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>37.87332357669354</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
-        <v>89.54596485166451</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>210.3395520054511</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>224.5923230564427</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5050978452828</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>203.7518744811936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9385315336397</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355695.015075356</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355695.0150753561</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426006.5349368212</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426006.5349368213</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426006.5349368212</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>426006.5349368211</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426006.5349368212</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426006.5349368214</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426006.5349368212</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426006.5349368213</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="D2" t="n">
         <v>69879.81359544015</v>
@@ -26328,34 +26328,34 @@
         <v>77709.90440324532</v>
       </c>
       <c r="G2" t="n">
-        <v>78690.36860402084</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="H2" t="n">
-        <v>78690.36860402086</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="I2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="J2" t="n">
-        <v>95497.94158228206</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="K2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="L2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="M2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="N2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="O2" t="n">
-        <v>95497.94158228204</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="P2" t="n">
-        <v>95497.94158228203</v>
+        <v>77709.90440324532</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6195.437630976988</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>102869.3965176397</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.918834415866</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>10671.97046685471</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>10671.97046685471</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>7356.566181507746</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>7356.566181507746</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>7356.566181507746</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>7356.566181507747</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>7356.566181507747</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>7356.566181507754</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>7356.566181507755</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>7356.566181507754</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>7388.142243095836</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>7388.142243095836</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>14520.08777992139</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>14520.08777992139</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>14520.08777992139</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>14520.08777992139</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>14520.08777992139</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>14520.0877799214</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>14520.0877799214</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>14520.0877799214</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27276.79286374547</v>
+        <v>-13641.18629071421</v>
       </c>
       <c r="C6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.18629071422</v>
       </c>
       <c r="D6" t="n">
-        <v>-27276.79286374549</v>
+        <v>-13641.1862907142</v>
       </c>
       <c r="E6" t="n">
-        <v>-211653.5923716301</v>
+        <v>-198560.0690083699</v>
       </c>
       <c r="F6" t="n">
-        <v>45291.73403335281</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="G6" t="n">
-        <v>39961.87929371859</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="H6" t="n">
-        <v>46157.31692469561</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="I6" t="n">
-        <v>-42428.15763706453</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="J6" t="n">
-        <v>60441.23888057523</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="K6" t="n">
-        <v>60441.23888057521</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="L6" t="n">
-        <v>60441.23888057521</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="M6" t="n">
-        <v>60441.23888057521</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="N6" t="n">
-        <v>60441.23888057521</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="O6" t="n">
-        <v>59343.32004615934</v>
+        <v>58385.25739661297</v>
       </c>
       <c r="P6" t="n">
-        <v>60441.2388805752</v>
+        <v>58385.25739661297</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>435.2111674088638</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.360213490542208</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>109.0297354202791</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>78.20883724775447</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>143.1166663875171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>135.7196638785462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>184.1693769654345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>214.1128359387307</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>224.9051577774157</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>173.3770551267494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>224.9051577774157</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>173.3770551267494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>224.9051577774157</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>173.3770551267494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>224.9051577774157</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>173.3770551267494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>151.1619768914353</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>224.9051577774158</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>173.3770551267497</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>224.9051577774158</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>186.697593043826</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.749592632799451</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>17.91801555065739</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>67.45116997600091</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>148.4944877180626</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>222.5547438644634</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>276.0988394004996</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2131573840469</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
-        <v>312.1841874519884</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>294.7866757095888</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>251.5936075873523</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.9363214252219</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>109.9028482200886</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>39.86884211991754</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>7.658841750079602</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1399674106239561</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9361145865020846</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>9.040896138059606</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>32.23026098263756</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>88.44229959579565</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
-        <v>203.2559324771302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>224.9051577774158</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>186.697593043826</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>222.7254735700815</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>178.7568283645954</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.494205813845</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>58.12121967773471</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>17.38791786770318</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>3.773198706120243</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06158648595408453</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7848070231963118</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>6.977647897145395</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>23.60128757030364</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>55.48585653997924</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>91.18030687680783</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>116.6794005213862</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>123.0220681906727</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>120.0968783769411</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>110.9289054241478</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>94.91884215094298</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.71688627873844</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>35.28777760662688</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>13.67704603152117</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>3.353266371838786</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04280765581070797</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>42.72065902637929</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>42.03534304341613</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>68.91081505092498</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>10.51602097193108</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.25576620689647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>42.03534304341615</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>79.42683602285604</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>42.72065902637929</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>42.03534304341615</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.91081505092498</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>10.51602097193108</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.25576620689647</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>42.03534304341615</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>79.42683602285604</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>40.25576620689655</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>42.03534304341615</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.91081505092498</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>10.51602097193106</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>82.77112385539735</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.25576620689682</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>13.32053791707631</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>42.03534304341638</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.91081505092498</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>10.51602097193114</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>40.25576620689681</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>55.35588096049269</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>79.42683602285612</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.464892819482827</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>40.33242443051239</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>76.86692415677416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>64.68846428790206</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>20.36061183208275</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.25576620689682</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>64.70155269725606</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.35588096049269</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>80.12922912563704</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>44.78242095026519</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>82.77112385539743</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.42683602285612</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
